--- a/заказы/филиалы и опт/2024/05,24/06,05,24 Ост КИ филиалы/дв 06,05,24 днрсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/05,24/06,05,24 Ост КИ филиалы/дв 06,05,24 днрсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\06,05,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\05,24\06,05,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD00F76-B7AC-469C-BA55-62365D11B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB0A4D-5BDC-42BA-AA1A-46B776C9F2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AD$84</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -869,7 +869,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AE4"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
